--- a/templates/instagram.xlsx
+++ b/templates/instagram.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11640" tabRatio="737" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11640" tabRatio="737" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Display" sheetId="16" r:id="rId1"/>
@@ -703,10 +703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF123"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63:AE118"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5270,10 +5269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63:AE118"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9834,10 +9832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="B63" sqref="B63:AE118"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19449,7 +19446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/templates/instagram.xlsx
+++ b/templates/instagram.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Report Data for DAAT 2016-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="20730" windowHeight="11640" tabRatio="737"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18120" windowHeight="5190" tabRatio="737"/>
   </bookViews>
   <sheets>
     <sheet name="Display" sheetId="16" r:id="rId1"/>
